--- a/Asignación AMPL.xlsx
+++ b/Asignación AMPL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\entrega 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\Simio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>aserraderos/molinos</t>
   </si>
@@ -74,13 +74,43 @@
     <t>paper</t>
   </si>
   <si>
-    <t>4 dias libres en sus 30 aserraderos</t>
-  </si>
-  <si>
     <t>41 d.l. en sus 31 aserraderos</t>
   </si>
   <si>
     <t>49 d.l. en sus 39 aserraderos</t>
+  </si>
+  <si>
+    <t>40 dias libres en sus 30 aserraderos</t>
+  </si>
+  <si>
+    <t>bright:</t>
+  </si>
+  <si>
+    <t>koala:</t>
+  </si>
+  <si>
+    <t>paper:</t>
+  </si>
+  <si>
+    <t>dias libres</t>
+  </si>
+  <si>
+    <t>según dia</t>
+  </si>
+  <si>
+    <t>de la semana</t>
+  </si>
+  <si>
+    <t>Aserraderos</t>
+  </si>
+  <si>
+    <t>diarios en</t>
+  </si>
+  <si>
+    <t>verano</t>
+  </si>
+  <si>
+    <t>no invierno</t>
   </si>
 </sst>
 </file>
@@ -110,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -142,11 +172,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,6 +271,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -478,10 +612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4233,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4272,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4311,7 +4445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4350,7 +4484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4389,7 +4523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4428,59 +4562,349 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C103" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="8">
+        <v>9</v>
+      </c>
+      <c r="G103" s="8">
+        <v>4</v>
+      </c>
+      <c r="H103" s="8">
+        <v>6</v>
+      </c>
+      <c r="I103" s="8">
+        <v>6</v>
+      </c>
+      <c r="J103" s="8">
+        <v>5</v>
+      </c>
+      <c r="K103" s="8">
+        <v>6</v>
+      </c>
+      <c r="L103" s="9">
+        <v>4</v>
+      </c>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I104" t="s">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C104" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="12">
+        <v>10</v>
+      </c>
+      <c r="G104" s="12">
+        <v>4</v>
+      </c>
+      <c r="H104" s="12">
+        <v>4</v>
+      </c>
+      <c r="I104" s="12">
+        <v>6</v>
+      </c>
+      <c r="J104" s="12">
+        <v>4</v>
+      </c>
+      <c r="K104" s="12">
+        <v>6</v>
+      </c>
+      <c r="L104" s="13">
+        <v>7</v>
+      </c>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="16">
+        <v>21</v>
+      </c>
+      <c r="G105" s="16">
+        <v>5</v>
+      </c>
+      <c r="H105" s="16">
+        <v>6</v>
+      </c>
+      <c r="I105" s="16">
+        <v>5</v>
+      </c>
+      <c r="J105" s="16">
+        <v>3</v>
+      </c>
+      <c r="K105" s="16">
+        <v>6</v>
+      </c>
+      <c r="L105" s="17">
+        <v>3</v>
+      </c>
+      <c r="N105" s="1"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N106" s="1"/>
+      <c r="O106" t="s">
         <v>12</v>
       </c>
-      <c r="J104" t="s">
+      <c r="P106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N107" s="1"/>
+      <c r="O107" t="s">
+        <v>13</v>
+      </c>
+      <c r="P107" t="s">
         <v>15</v>
       </c>
-      <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I105" t="s">
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108">
+        <f>30-F103</f>
+        <v>21</v>
+      </c>
+      <c r="G108">
+        <f t="shared" ref="G108:L108" si="2">30-G103</f>
+        <v>26</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N108" s="1"/>
+      <c r="O108" t="s">
+        <v>14</v>
+      </c>
+      <c r="P108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
         <v>13</v>
       </c>
-      <c r="J105" t="s">
-        <v>16</v>
-      </c>
-      <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I106" t="s">
+      <c r="F109">
+        <f>31-F104</f>
+        <v>21</v>
+      </c>
+      <c r="G109">
+        <f t="shared" ref="G109:L109" si="3">31-G104</f>
+        <v>27</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" t="s">
         <v>14</v>
       </c>
-      <c r="J106" t="s">
-        <v>17</v>
-      </c>
-      <c r="N106" s="1"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N107" s="1"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N108" s="1"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f>39-F105</f>
+        <v>18</v>
+      </c>
+      <c r="G110">
+        <f t="shared" ref="G110:L110" si="4">39-G105</f>
+        <v>34</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112">
+        <f>28-F103</f>
+        <v>19</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ref="G112:L112" si="5">28-G103</f>
+        <v>24</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113">
+        <f>28-F104</f>
+        <v>18</v>
+      </c>
+      <c r="G113">
+        <f t="shared" ref="G113:L113" si="6">28-G104</f>
+        <v>24</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
       <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114">
+        <f>44-F105</f>
+        <v>23</v>
+      </c>
+      <c r="G114">
+        <f t="shared" ref="G114:L114" si="7">44-G105</f>
+        <v>39</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D101">

--- a/Asignación AMPL.xlsx
+++ b/Asignación AMPL.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$P$1:$AA$101</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>aserraderos/molinos</t>
   </si>
@@ -107,10 +107,31 @@
     <t>diarios en</t>
   </si>
   <si>
-    <t>verano</t>
+    <t>no invierno</t>
   </si>
   <si>
-    <t>no invierno</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>invierno</t>
   </si>
 </sst>
 </file>
@@ -612,19 +633,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:AC113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="I117" sqref="I117"/>
+      <selection activeCell="T115" sqref="T115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="14" max="14" width="26.140625" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,8 +683,44 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -700,8 +758,45 @@
         <f>SUM(F2:L2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <f>SUM(U2:AA2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -739,8 +834,45 @@
         <f t="shared" ref="N3:N66" si="0">SUM(F3:L3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <f t="shared" ref="AC3:AC66" si="1">SUM(U3:AA3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -778,8 +910,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -817,8 +986,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -856,8 +1062,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -895,8 +1138,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -934,8 +1214,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -973,8 +1290,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <v>1</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1012,8 +1366,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1051,8 +1442,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1090,8 +1518,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1129,8 +1594,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1168,8 +1670,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1207,8 +1746,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>0</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1246,8 +1822,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P16" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1285,8 +1898,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P17" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1324,8 +1974,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1363,8 +2050,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P19" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1402,8 +2126,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="2">
+        <v>1</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1441,8 +2202,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="1">
+        <v>20</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1480,8 +2278,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="1">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1519,8 +2354,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="1">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1558,8 +2430,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="1">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1597,8 +2506,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1636,8 +2582,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="1">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <v>0</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1675,8 +2658,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P27" s="1">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1</v>
+      </c>
+      <c r="V27" s="4">
+        <v>0</v>
+      </c>
+      <c r="W27" s="4">
+        <v>0</v>
+      </c>
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1714,8 +2734,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P28" s="1">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1753,8 +2810,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P29" s="1">
+        <v>28</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
+        <v>0</v>
+      </c>
+      <c r="V29" s="4">
+        <v>1</v>
+      </c>
+      <c r="W29" s="4">
+        <v>0</v>
+      </c>
+      <c r="X29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1792,8 +2886,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P30" s="1">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1831,8 +2962,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P31" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
+        <v>1</v>
+      </c>
+      <c r="V31" s="4">
+        <v>0</v>
+      </c>
+      <c r="W31" s="4">
+        <v>0</v>
+      </c>
+      <c r="X31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1870,8 +3038,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="1">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1909,8 +3114,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4">
+        <v>0</v>
+      </c>
+      <c r="V33" s="4">
+        <v>0</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1948,8 +3190,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>1</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1987,8 +3266,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="1">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="U35" s="4">
+        <v>0</v>
+      </c>
+      <c r="V35" s="4">
+        <v>0</v>
+      </c>
+      <c r="W35" s="4">
+        <v>1</v>
+      </c>
+      <c r="X35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2026,8 +3342,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="1">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2065,8 +3418,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P37" s="1">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
+      <c r="U37" s="4">
+        <v>1</v>
+      </c>
+      <c r="V37" s="4">
+        <v>0</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0</v>
+      </c>
+      <c r="X37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2104,8 +3494,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P38" s="1">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2143,8 +3570,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P39" s="1">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>1</v>
+      </c>
+      <c r="U39" s="4">
+        <v>0</v>
+      </c>
+      <c r="V39" s="4">
+        <v>1</v>
+      </c>
+      <c r="W39" s="4">
+        <v>0</v>
+      </c>
+      <c r="X39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2182,8 +3646,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P40" s="1">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2221,8 +3722,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="1">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <v>0</v>
+      </c>
+      <c r="V41" s="4">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>0</v>
+      </c>
+      <c r="X41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2260,8 +3798,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2299,8 +3874,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="1">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4">
+        <v>0</v>
+      </c>
+      <c r="V43" s="4">
+        <v>0</v>
+      </c>
+      <c r="W43" s="4">
+        <v>0</v>
+      </c>
+      <c r="X43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2338,8 +3950,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P44" s="1">
+        <v>43</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2377,8 +4026,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P45" s="1">
+        <v>44</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1</v>
+      </c>
+      <c r="U45" s="4">
+        <v>1</v>
+      </c>
+      <c r="V45" s="4">
+        <v>0</v>
+      </c>
+      <c r="W45" s="4">
+        <v>1</v>
+      </c>
+      <c r="X45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2416,8 +4102,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P46" s="1">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>1</v>
+      </c>
+      <c r="U46" s="2">
+        <v>1</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2455,8 +4178,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="1">
+        <v>46</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="U47" s="4">
+        <v>0</v>
+      </c>
+      <c r="V47" s="4">
+        <v>1</v>
+      </c>
+      <c r="W47" s="4">
+        <v>1</v>
+      </c>
+      <c r="X47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2494,8 +4254,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="1">
+        <v>47</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2533,8 +4330,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>1</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="4">
+        <v>0</v>
+      </c>
+      <c r="V49" s="4">
+        <v>1</v>
+      </c>
+      <c r="W49" s="4">
+        <v>0</v>
+      </c>
+      <c r="X49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2572,8 +4406,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>1</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2611,8 +4482,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P51" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>1</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="U51" s="4">
+        <v>1</v>
+      </c>
+      <c r="V51" s="4">
+        <v>0</v>
+      </c>
+      <c r="W51" s="4">
+        <v>0</v>
+      </c>
+      <c r="X51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2650,8 +4558,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P52" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1</v>
+      </c>
+      <c r="U52" s="2">
+        <v>1</v>
+      </c>
+      <c r="V52" s="2">
+        <v>0</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2689,8 +4634,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P53" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1</v>
+      </c>
+      <c r="U53" s="4">
+        <v>1</v>
+      </c>
+      <c r="V53" s="4">
+        <v>0</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0</v>
+      </c>
+      <c r="X53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2728,8 +4710,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P54" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>1</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>1</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2767,8 +4786,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>1</v>
+      </c>
+      <c r="U55" s="4">
+        <v>0</v>
+      </c>
+      <c r="V55" s="4">
+        <v>0</v>
+      </c>
+      <c r="W55" s="4">
+        <v>0</v>
+      </c>
+      <c r="X55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2806,8 +4862,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="1">
+        <v>55</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>1</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2845,8 +4938,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="1">
+        <v>56</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="U57" s="4">
+        <v>0</v>
+      </c>
+      <c r="V57" s="4">
+        <v>0</v>
+      </c>
+      <c r="W57" s="4">
+        <v>1</v>
+      </c>
+      <c r="X57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2884,8 +5014,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="1">
+        <v>57</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2923,8 +5090,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P59" s="1">
+        <v>58</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1</v>
+      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="U59" s="4">
+        <v>0</v>
+      </c>
+      <c r="V59" s="4">
+        <v>0</v>
+      </c>
+      <c r="W59" s="4">
+        <v>1</v>
+      </c>
+      <c r="X59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2962,8 +5166,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P60" s="1">
+        <v>59</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0</v>
+      </c>
+      <c r="R60" s="1">
+        <v>0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>1</v>
+      </c>
+      <c r="U60" s="2">
+        <v>1</v>
+      </c>
+      <c r="V60" s="2">
+        <v>0</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
+      <c r="X60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3001,8 +5242,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P61" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>1</v>
+      </c>
+      <c r="R61" s="1">
+        <v>0</v>
+      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="U61" s="4">
+        <v>1</v>
+      </c>
+      <c r="V61" s="4">
+        <v>0</v>
+      </c>
+      <c r="W61" s="4">
+        <v>0</v>
+      </c>
+      <c r="X61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3040,8 +5318,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P62" s="1">
+        <v>61</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>1</v>
+      </c>
+      <c r="U62" s="2">
+        <v>1</v>
+      </c>
+      <c r="V62" s="2">
+        <v>0</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0</v>
+      </c>
+      <c r="X62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3079,8 +5394,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="1">
+        <v>62</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>1</v>
+      </c>
+      <c r="U63" s="4">
+        <v>0</v>
+      </c>
+      <c r="V63" s="4">
+        <v>0</v>
+      </c>
+      <c r="W63" s="4">
+        <v>1</v>
+      </c>
+      <c r="X63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3118,8 +5470,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P64" s="1">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>1</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
+        <v>1</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0</v>
+      </c>
+      <c r="X64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3157,8 +5546,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P65" s="1">
+        <v>64</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1</v>
+      </c>
+      <c r="R65" s="1">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="U65" s="4">
+        <v>0</v>
+      </c>
+      <c r="V65" s="4">
+        <v>0</v>
+      </c>
+      <c r="W65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3196,8 +5622,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P66" s="1">
+        <v>65</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>1</v>
+      </c>
+      <c r="R66" s="1">
+        <v>0</v>
+      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="2">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2">
+        <v>1</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="X66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3232,11 +5695,48 @@
         <v>0</v>
       </c>
       <c r="N67" s="1">
-        <f t="shared" ref="N67:N101" si="1">SUM(F67:L67)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="N67:N101" si="2">SUM(F67:L67)</f>
+        <v>1</v>
+      </c>
+      <c r="P67" s="1">
+        <v>66</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1</v>
+      </c>
+      <c r="R67" s="1">
+        <v>0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="4">
+        <v>1</v>
+      </c>
+      <c r="V67" s="4">
+        <v>0</v>
+      </c>
+      <c r="W67" s="4">
+        <v>0</v>
+      </c>
+      <c r="X67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="1">
+        <f t="shared" ref="AC67:AC101" si="3">SUM(U67:AA67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3271,11 +5771,48 @@
         <v>0</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P68" s="1">
+        <v>67</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="U68" s="2">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2">
+        <v>0</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+      <c r="X68" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -3310,11 +5847,48 @@
         <v>1</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P69" s="1">
+        <v>68</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>0</v>
+      </c>
+      <c r="S69" s="1">
+        <v>1</v>
+      </c>
+      <c r="U69" s="4">
+        <v>0</v>
+      </c>
+      <c r="V69" s="4">
+        <v>0</v>
+      </c>
+      <c r="W69" s="4">
+        <v>0</v>
+      </c>
+      <c r="X69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -3349,11 +5923,48 @@
         <v>0</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P70" s="1">
+        <v>69</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>1</v>
+      </c>
+      <c r="U70" s="2">
+        <v>0</v>
+      </c>
+      <c r="V70" s="2">
+        <v>0</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+      <c r="X70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -3388,11 +5999,48 @@
         <v>0</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P71" s="1">
+        <v>70</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0</v>
+      </c>
+      <c r="R71" s="1">
+        <v>0</v>
+      </c>
+      <c r="S71" s="1">
+        <v>1</v>
+      </c>
+      <c r="U71" s="4">
+        <v>1</v>
+      </c>
+      <c r="V71" s="4">
+        <v>0</v>
+      </c>
+      <c r="W71" s="4">
+        <v>0</v>
+      </c>
+      <c r="X71" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -3427,11 +6075,48 @@
         <v>1</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P72" s="1">
+        <v>71</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0</v>
+      </c>
+      <c r="R72" s="1">
+        <v>0</v>
+      </c>
+      <c r="S72" s="1">
+        <v>1</v>
+      </c>
+      <c r="U72" s="2">
+        <v>1</v>
+      </c>
+      <c r="V72" s="2">
+        <v>0</v>
+      </c>
+      <c r="W72" s="2">
+        <v>0</v>
+      </c>
+      <c r="X72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3466,11 +6151,48 @@
         <v>0</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P73" s="1">
+        <v>72</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>1</v>
+      </c>
+      <c r="U73" s="4">
+        <v>0</v>
+      </c>
+      <c r="V73" s="4">
+        <v>1</v>
+      </c>
+      <c r="W73" s="4">
+        <v>0</v>
+      </c>
+      <c r="X73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3505,11 +6227,48 @@
         <v>0</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P74" s="1">
+        <v>73</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>1</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="U74" s="2">
+        <v>1</v>
+      </c>
+      <c r="V74" s="2">
+        <v>0</v>
+      </c>
+      <c r="W74" s="2">
+        <v>0</v>
+      </c>
+      <c r="X74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3544,11 +6303,48 @@
         <v>0</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P75" s="1">
+        <v>74</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>1</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="U75" s="4">
+        <v>0</v>
+      </c>
+      <c r="V75" s="4">
+        <v>0</v>
+      </c>
+      <c r="W75" s="4">
+        <v>0</v>
+      </c>
+      <c r="X75" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3583,11 +6379,48 @@
         <v>0</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P76" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>1</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="U76" s="2">
+        <v>0</v>
+      </c>
+      <c r="V76" s="2">
+        <v>0</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+      <c r="X76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3622,11 +6455,48 @@
         <v>0</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P77" s="1">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>1</v>
+      </c>
+      <c r="R77" s="1">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="U77" s="4">
+        <v>1</v>
+      </c>
+      <c r="V77" s="4">
+        <v>0</v>
+      </c>
+      <c r="W77" s="4">
+        <v>0</v>
+      </c>
+      <c r="X77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -3661,11 +6531,48 @@
         <v>1</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P78" s="1">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>1</v>
+      </c>
+      <c r="R78" s="1">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="U78" s="2">
+        <v>0</v>
+      </c>
+      <c r="V78" s="2">
+        <v>0</v>
+      </c>
+      <c r="W78" s="2">
+        <v>1</v>
+      </c>
+      <c r="X78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -3700,11 +6607,48 @@
         <v>0</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P79" s="1">
+        <v>78</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>1</v>
+      </c>
+      <c r="R79" s="1">
+        <v>0</v>
+      </c>
+      <c r="S79" s="1">
+        <v>0</v>
+      </c>
+      <c r="U79" s="4">
+        <v>0</v>
+      </c>
+      <c r="V79" s="4">
+        <v>0</v>
+      </c>
+      <c r="W79" s="4">
+        <v>0</v>
+      </c>
+      <c r="X79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA79" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -3739,11 +6683,48 @@
         <v>0</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P80" s="1">
+        <v>79</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>1</v>
+      </c>
+      <c r="R80" s="1">
+        <v>0</v>
+      </c>
+      <c r="S80" s="1">
+        <v>0</v>
+      </c>
+      <c r="U80" s="2">
+        <v>0</v>
+      </c>
+      <c r="V80" s="2">
+        <v>0</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0</v>
+      </c>
+      <c r="X80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA80" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -3778,11 +6759,48 @@
         <v>0</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P81" s="1">
+        <v>80</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>1</v>
+      </c>
+      <c r="R81" s="1">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="U81" s="4">
+        <v>0</v>
+      </c>
+      <c r="V81" s="4">
+        <v>0</v>
+      </c>
+      <c r="W81" s="4">
+        <v>0</v>
+      </c>
+      <c r="X81" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -3817,11 +6835,48 @@
         <v>0</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P82" s="1">
+        <v>81</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>1</v>
+      </c>
+      <c r="R82" s="1">
+        <v>0</v>
+      </c>
+      <c r="S82" s="1">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+      <c r="X82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA82" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -3856,11 +6911,48 @@
         <v>0</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P83" s="1">
+        <v>82</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>1</v>
+      </c>
+      <c r="U83" s="4">
+        <v>1</v>
+      </c>
+      <c r="V83" s="4">
+        <v>0</v>
+      </c>
+      <c r="W83" s="4">
+        <v>0</v>
+      </c>
+      <c r="X83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -3895,11 +6987,48 @@
         <v>0</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P84" s="1">
+        <v>83</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>1</v>
+      </c>
+      <c r="U84" s="2">
+        <v>1</v>
+      </c>
+      <c r="V84" s="2">
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
+      </c>
+      <c r="X84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -3934,11 +7063,48 @@
         <v>0</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P85" s="1">
+        <v>84</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>1</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="U85" s="4">
+        <v>1</v>
+      </c>
+      <c r="V85" s="4">
+        <v>0</v>
+      </c>
+      <c r="W85" s="4">
+        <v>1</v>
+      </c>
+      <c r="X85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3973,11 +7139,48 @@
         <v>0</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P86" s="1">
+        <v>85</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>1</v>
+      </c>
+      <c r="R86" s="1">
+        <v>0</v>
+      </c>
+      <c r="S86" s="1">
+        <v>0</v>
+      </c>
+      <c r="U86" s="2">
+        <v>0</v>
+      </c>
+      <c r="V86" s="2">
+        <v>0</v>
+      </c>
+      <c r="W86" s="2">
+        <v>1</v>
+      </c>
+      <c r="X86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4012,11 +7215,48 @@
         <v>0</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P87" s="1">
+        <v>86</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>1</v>
+      </c>
+      <c r="R87" s="1">
+        <v>0</v>
+      </c>
+      <c r="S87" s="1">
+        <v>0</v>
+      </c>
+      <c r="U87" s="4">
+        <v>0</v>
+      </c>
+      <c r="V87" s="4">
+        <v>0</v>
+      </c>
+      <c r="W87" s="4">
+        <v>0</v>
+      </c>
+      <c r="X87" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z87" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4051,11 +7291,48 @@
         <v>0</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P88" s="1">
+        <v>87</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>1</v>
+      </c>
+      <c r="R88" s="1">
+        <v>0</v>
+      </c>
+      <c r="S88" s="1">
+        <v>0</v>
+      </c>
+      <c r="U88" s="2">
+        <v>0</v>
+      </c>
+      <c r="V88" s="2">
+        <v>0</v>
+      </c>
+      <c r="W88" s="2">
+        <v>0</v>
+      </c>
+      <c r="X88" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4090,11 +7367,48 @@
         <v>0</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P89" s="1">
+        <v>88</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>1</v>
+      </c>
+      <c r="R89" s="1">
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="U89" s="4">
+        <v>1</v>
+      </c>
+      <c r="V89" s="4">
+        <v>0</v>
+      </c>
+      <c r="W89" s="4">
+        <v>0</v>
+      </c>
+      <c r="X89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4129,11 +7443,48 @@
         <v>0</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P90" s="1">
+        <v>89</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>1</v>
+      </c>
+      <c r="R90" s="1">
+        <v>0</v>
+      </c>
+      <c r="S90" s="1">
+        <v>0</v>
+      </c>
+      <c r="U90" s="2">
+        <v>0</v>
+      </c>
+      <c r="V90" s="2">
+        <v>0</v>
+      </c>
+      <c r="W90" s="2">
+        <v>1</v>
+      </c>
+      <c r="X90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4168,11 +7519,48 @@
         <v>1</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P91" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>1</v>
+      </c>
+      <c r="R91" s="1">
+        <v>0</v>
+      </c>
+      <c r="S91" s="1">
+        <v>0</v>
+      </c>
+      <c r="U91" s="4">
+        <v>0</v>
+      </c>
+      <c r="V91" s="4">
+        <v>0</v>
+      </c>
+      <c r="W91" s="4">
+        <v>0</v>
+      </c>
+      <c r="X91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4207,11 +7595,48 @@
         <v>0</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P92" s="1">
+        <v>91</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>0</v>
+      </c>
+      <c r="R92" s="1">
+        <v>0</v>
+      </c>
+      <c r="S92" s="1">
+        <v>1</v>
+      </c>
+      <c r="U92" s="2">
+        <v>0</v>
+      </c>
+      <c r="V92" s="2">
+        <v>0</v>
+      </c>
+      <c r="W92" s="2">
+        <v>1</v>
+      </c>
+      <c r="X92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -4246,11 +7671,48 @@
         <v>0</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P93" s="1">
+        <v>92</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>0</v>
+      </c>
+      <c r="R93" s="1">
+        <v>0</v>
+      </c>
+      <c r="S93" s="1">
+        <v>1</v>
+      </c>
+      <c r="U93" s="4">
+        <v>1</v>
+      </c>
+      <c r="V93" s="4">
+        <v>0</v>
+      </c>
+      <c r="W93" s="4">
+        <v>0</v>
+      </c>
+      <c r="X93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -4285,11 +7747,48 @@
         <v>0</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P94" s="1">
+        <v>93</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>1</v>
+      </c>
+      <c r="R94" s="1">
+        <v>0</v>
+      </c>
+      <c r="S94" s="1">
+        <v>0</v>
+      </c>
+      <c r="U94" s="2">
+        <v>1</v>
+      </c>
+      <c r="V94" s="2">
+        <v>0</v>
+      </c>
+      <c r="W94" s="2">
+        <v>0</v>
+      </c>
+      <c r="X94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4324,11 +7823,48 @@
         <v>0</v>
       </c>
       <c r="N95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P95" s="1">
+        <v>94</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>1</v>
+      </c>
+      <c r="R95" s="1">
+        <v>0</v>
+      </c>
+      <c r="S95" s="1">
+        <v>0</v>
+      </c>
+      <c r="U95" s="4">
+        <v>0</v>
+      </c>
+      <c r="V95" s="4">
+        <v>1</v>
+      </c>
+      <c r="W95" s="4">
+        <v>0</v>
+      </c>
+      <c r="X95" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4363,11 +7899,48 @@
         <v>0</v>
       </c>
       <c r="N96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P96" s="1">
+        <v>95</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>1</v>
+      </c>
+      <c r="R96" s="1">
+        <v>0</v>
+      </c>
+      <c r="S96" s="1">
+        <v>0</v>
+      </c>
+      <c r="U96" s="2">
+        <v>1</v>
+      </c>
+      <c r="V96" s="2">
+        <v>0</v>
+      </c>
+      <c r="W96" s="2">
+        <v>1</v>
+      </c>
+      <c r="X96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4402,11 +7975,48 @@
         <v>0</v>
       </c>
       <c r="N97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P97" s="1">
+        <v>96</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>1</v>
+      </c>
+      <c r="R97" s="1">
+        <v>0</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="U97" s="4">
+        <v>0</v>
+      </c>
+      <c r="V97" s="4">
+        <v>0</v>
+      </c>
+      <c r="W97" s="4">
+        <v>0</v>
+      </c>
+      <c r="X97" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y97" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA97" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4441,11 +8051,48 @@
         <v>0</v>
       </c>
       <c r="N98" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P98" s="1">
+        <v>97</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>1</v>
+      </c>
+      <c r="R98" s="1">
+        <v>0</v>
+      </c>
+      <c r="S98" s="1">
+        <v>0</v>
+      </c>
+      <c r="U98" s="2">
+        <v>1</v>
+      </c>
+      <c r="V98" s="2">
+        <v>0</v>
+      </c>
+      <c r="W98" s="2">
+        <v>0</v>
+      </c>
+      <c r="X98" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4480,11 +8127,48 @@
         <v>1</v>
       </c>
       <c r="N99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P99" s="1">
+        <v>98</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>1</v>
+      </c>
+      <c r="R99" s="1">
+        <v>0</v>
+      </c>
+      <c r="S99" s="1">
+        <v>0</v>
+      </c>
+      <c r="U99" s="4">
+        <v>0</v>
+      </c>
+      <c r="V99" s="4">
+        <v>0</v>
+      </c>
+      <c r="W99" s="4">
+        <v>0</v>
+      </c>
+      <c r="X99" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -4519,11 +8203,48 @@
         <v>0</v>
       </c>
       <c r="N100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P100" s="1">
+        <v>99</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>0</v>
+      </c>
+      <c r="R100" s="1">
+        <v>0</v>
+      </c>
+      <c r="S100" s="1">
+        <v>1</v>
+      </c>
+      <c r="U100" s="2">
+        <v>1</v>
+      </c>
+      <c r="V100" s="2">
+        <v>0</v>
+      </c>
+      <c r="W100" s="2">
+        <v>0</v>
+      </c>
+      <c r="X100" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y100" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="1">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -4558,14 +8279,51 @@
         <v>0</v>
       </c>
       <c r="N101" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P101" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>0</v>
+      </c>
+      <c r="R101" s="1">
+        <v>0</v>
+      </c>
+      <c r="S101" s="1">
+        <v>1</v>
+      </c>
+      <c r="U101" s="4">
+        <v>1</v>
+      </c>
+      <c r="V101" s="4">
+        <v>0</v>
+      </c>
+      <c r="W101" s="4">
+        <v>0</v>
+      </c>
+      <c r="X101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C103" s="6" t="s">
         <v>21</v>
       </c>
@@ -4595,8 +8353,32 @@
         <v>4</v>
       </c>
       <c r="N103" s="1"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T103" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U103" s="8">
+        <v>9</v>
+      </c>
+      <c r="V103" s="8">
+        <v>3</v>
+      </c>
+      <c r="W103" s="8">
+        <v>6</v>
+      </c>
+      <c r="X103" s="8">
+        <v>6</v>
+      </c>
+      <c r="Y103" s="8">
+        <v>5</v>
+      </c>
+      <c r="Z103" s="8">
+        <v>6</v>
+      </c>
+      <c r="AA103" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C104" s="10" t="s">
         <v>22</v>
       </c>
@@ -4626,8 +8408,32 @@
         <v>7</v>
       </c>
       <c r="N104" s="1"/>
-    </row>
-    <row r="105" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T104" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U104" s="12">
+        <v>8</v>
+      </c>
+      <c r="V104" s="12">
+        <v>4</v>
+      </c>
+      <c r="W104" s="12">
+        <v>3</v>
+      </c>
+      <c r="X104" s="12">
+        <v>6</v>
+      </c>
+      <c r="Y104" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z104" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA104" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C105" s="14" t="s">
         <v>23</v>
       </c>
@@ -4657,8 +8463,32 @@
         <v>3</v>
       </c>
       <c r="N105" s="1"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T105" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="U105" s="16">
+        <v>23</v>
+      </c>
+      <c r="V105" s="16">
+        <v>6</v>
+      </c>
+      <c r="W105" s="16">
+        <v>7</v>
+      </c>
+      <c r="X105" s="16">
+        <v>5</v>
+      </c>
+      <c r="Y105" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z105" s="16">
+        <v>7</v>
+      </c>
+      <c r="AA105" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N106" s="1"/>
       <c r="O106" t="s">
         <v>12</v>
@@ -4667,7 +8497,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="F107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="N107" s="1"/>
       <c r="O107" t="s">
         <v>13</v>
@@ -4676,39 +8527,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>24</v>
       </c>
       <c r="E108" t="s">
         <v>12</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="1">
         <f>30-F103</f>
         <v>21</v>
       </c>
-      <c r="G108">
-        <f t="shared" ref="G108:L108" si="2">30-G103</f>
+      <c r="G108" s="1">
+        <f t="shared" ref="G108:L108" si="4">30-G103</f>
         <v>26</v>
       </c>
-      <c r="H108">
-        <f t="shared" si="2"/>
+      <c r="H108" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="I108">
-        <f t="shared" si="2"/>
+      <c r="I108" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="J108">
-        <f t="shared" si="2"/>
+      <c r="J108" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="K108">
-        <f t="shared" si="2"/>
+      <c r="K108" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="L108">
-        <f t="shared" si="2"/>
+      <c r="L108" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="N108" s="1"/>
@@ -4718,196 +8569,215 @@
       <c r="P108" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="U108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA108" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>25</v>
       </c>
       <c r="E109" t="s">
         <v>13</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="1">
         <f>31-F104</f>
         <v>21</v>
       </c>
-      <c r="G109">
-        <f t="shared" ref="G109:L109" si="3">31-G104</f>
+      <c r="G109" s="1">
+        <f t="shared" ref="G109:L109" si="5">31-G104</f>
         <v>27</v>
       </c>
-      <c r="H109">
-        <f t="shared" si="3"/>
+      <c r="H109" s="1">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="I109">
-        <f t="shared" si="3"/>
+      <c r="I109" s="1">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="J109">
-        <f t="shared" si="3"/>
+      <c r="J109" s="1">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="K109">
-        <f t="shared" si="3"/>
+      <c r="K109" s="1">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="L109">
-        <f t="shared" si="3"/>
+      <c r="L109" s="1">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="N109" s="1"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R109" t="s">
+        <v>24</v>
+      </c>
+      <c r="T109" t="s">
+        <v>12</v>
+      </c>
+      <c r="U109" s="1">
+        <f>28-U103</f>
+        <v>19</v>
+      </c>
+      <c r="V109" s="1">
+        <f t="shared" ref="V109:AA109" si="6">28-V103</f>
+        <v>25</v>
+      </c>
+      <c r="W109" s="1">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="X109" s="1">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="Y109" s="1">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="Z109" s="1">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="AA109" s="1">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="1">
         <f>39-F105</f>
         <v>18</v>
       </c>
-      <c r="G110">
-        <f t="shared" ref="G110:L110" si="4">39-G105</f>
+      <c r="G110" s="1">
+        <f t="shared" ref="G110:L110" si="7">39-G105</f>
         <v>34</v>
       </c>
-      <c r="H110">
-        <f t="shared" si="4"/>
+      <c r="H110" s="1">
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="I110">
-        <f t="shared" si="4"/>
+      <c r="I110" s="1">
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="J110">
-        <f t="shared" si="4"/>
+      <c r="J110" s="1">
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="K110">
-        <f t="shared" si="4"/>
+      <c r="K110" s="1">
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="L110">
-        <f t="shared" si="4"/>
+      <c r="L110" s="1">
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="N110" s="1"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R110" t="s">
+        <v>25</v>
+      </c>
+      <c r="T110" t="s">
+        <v>13</v>
+      </c>
+      <c r="U110" s="1">
+        <f>28-U104</f>
+        <v>20</v>
+      </c>
+      <c r="V110" s="1">
+        <f t="shared" ref="V110:AA110" si="8">28-V104</f>
+        <v>24</v>
+      </c>
+      <c r="W110" s="1">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="X110" s="1">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="Y110" s="1">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="Z110" s="1">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="AA110" s="1">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N111" s="1"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112">
-        <f>28-F103</f>
-        <v>19</v>
-      </c>
-      <c r="G112">
-        <f t="shared" ref="G112:L112" si="5">28-G103</f>
-        <v>24</v>
-      </c>
-      <c r="H112">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="I112">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="J112">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="L112">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
+      <c r="R111" t="s">
+        <v>34</v>
+      </c>
+      <c r="T111" t="s">
+        <v>14</v>
+      </c>
+      <c r="U111" s="1">
+        <f>44-U105</f>
+        <v>21</v>
+      </c>
+      <c r="V111" s="1">
+        <f t="shared" ref="V111:AA111" si="9">44-V105</f>
+        <v>38</v>
+      </c>
+      <c r="W111" s="1">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="X111" s="1">
+        <f t="shared" si="9"/>
+        <v>39</v>
+      </c>
+      <c r="Y111" s="1">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="Z111" s="1">
+        <f t="shared" si="9"/>
+        <v>37</v>
+      </c>
+      <c r="AA111" s="1">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
-        <v>25</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113">
-        <f>28-F104</f>
-        <v>18</v>
-      </c>
-      <c r="G113">
-        <f t="shared" ref="G113:L113" si="6">28-G104</f>
-        <v>24</v>
-      </c>
-      <c r="H113">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="I113">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="J113">
-        <f t="shared" si="6"/>
-        <v>24</v>
-      </c>
-      <c r="K113">
-        <f t="shared" si="6"/>
-        <v>22</v>
-      </c>
-      <c r="L113">
-        <f t="shared" si="6"/>
-        <v>21</v>
-      </c>
+    <row r="113" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
-        <v>26</v>
-      </c>
-      <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114">
-        <f>44-F105</f>
-        <v>23</v>
-      </c>
-      <c r="G114">
-        <f t="shared" ref="G114:L114" si="7">44-G105</f>
-        <v>39</v>
-      </c>
-      <c r="H114">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="I114">
-        <f t="shared" si="7"/>
-        <v>39</v>
-      </c>
-      <c r="J114">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="L114">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D101">
+  <autoFilter ref="P1:AA101">
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
